--- a/car_crashes.xlsx
+++ b/car_crashes.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00545739713\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{CCE1B49C-B362-4DA6-8D28-63C8DC12422A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8760782B-AD01-459D-BCF0-50D2FCA94199}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abbrev" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="insurance" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>total</t>
   </si>
@@ -202,12 +202,18 @@
   </si>
   <si>
     <t>abbrev_id</t>
+  </si>
+  <si>
+    <t>data_id</t>
+  </si>
+  <si>
+    <t>insurance_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1041,10 +1047,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1476,12 +1482,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1494,7 +1498,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2588,23 +2592,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="B1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>

--- a/car_crashes.xlsx
+++ b/car_crashes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00545739713\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8760782B-AD01-459D-BCF0-50D2FCA94199}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAAEF66-774D-4DC8-9CF3-460FF2415F12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>total</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>insurance_id</t>
+  </si>
+  <si>
+    <t>ins_type</t>
   </si>
 </sst>
 </file>
@@ -2593,10 +2596,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2606,7 +2609,7 @@
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -2616,8 +2619,11 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2627,8 +2633,11 @@
       <c r="C2">
         <v>145.08000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -2639,8 +2648,11 @@
       <c r="C3">
         <v>133.93</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A52" si="0">A3+1</f>
         <v>3</v>
@@ -2651,8 +2663,11 @@
       <c r="C4">
         <v>110.35</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2663,8 +2678,11 @@
       <c r="C5">
         <v>142.38999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2675,8 +2693,11 @@
       <c r="C6">
         <v>165.63</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2687,8 +2708,11 @@
       <c r="C7">
         <v>139.91</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2699,8 +2723,11 @@
       <c r="C8">
         <v>167.02</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2711,8 +2738,11 @@
       <c r="C9">
         <v>151.47999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2723,8 +2753,11 @@
       <c r="C10">
         <v>136.05000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2735,8 +2768,11 @@
       <c r="C11">
         <v>144.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2747,8 +2783,11 @@
       <c r="C12">
         <v>142.80000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2759,8 +2798,11 @@
       <c r="C13">
         <v>120.92</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2771,8 +2813,11 @@
       <c r="C14">
         <v>82.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2783,8 +2828,11 @@
       <c r="C15">
         <v>139.15</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2795,8 +2843,11 @@
       <c r="C16">
         <v>108.92</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2807,8 +2858,11 @@
       <c r="C17">
         <v>114.47</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2819,8 +2873,11 @@
       <c r="C18">
         <v>133.80000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2831,8 +2888,11 @@
       <c r="C19">
         <v>137.13</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2843,8 +2903,11 @@
       <c r="C20">
         <v>194.78</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2855,8 +2918,11 @@
       <c r="C21">
         <v>96.57</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2867,8 +2933,11 @@
       <c r="C22">
         <v>192.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2879,8 +2948,11 @@
       <c r="C23">
         <v>135.63</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2891,8 +2963,11 @@
       <c r="C24">
         <v>152.26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2903,8 +2978,11 @@
       <c r="C25">
         <v>133.35</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2915,8 +2993,11 @@
       <c r="C26">
         <v>155.77000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2927,8 +3008,11 @@
       <c r="C27">
         <v>144.44999999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2939,8 +3023,11 @@
       <c r="C28">
         <v>85.15</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2951,8 +3038,11 @@
       <c r="C29">
         <v>114.82</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2963,8 +3053,11 @@
       <c r="C30">
         <v>138.71</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2975,8 +3068,11 @@
       <c r="C31">
         <v>120.21</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2987,8 +3083,11 @@
       <c r="C32">
         <v>159.85</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2999,8 +3098,11 @@
       <c r="C33">
         <v>120.75</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3011,8 +3113,11 @@
       <c r="C34">
         <v>150.01</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3023,8 +3128,11 @@
       <c r="C35">
         <v>127.82</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3035,8 +3143,11 @@
       <c r="C36">
         <v>109.72</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3047,8 +3158,11 @@
       <c r="C37">
         <v>133.52000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3059,8 +3173,11 @@
       <c r="C38">
         <v>178.86</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3071,8 +3188,11 @@
       <c r="C39">
         <v>104.61</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3083,8 +3203,11 @@
       <c r="C40">
         <v>153.86000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3095,8 +3218,11 @@
       <c r="C41">
         <v>148.58000000000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3107,8 +3233,11 @@
       <c r="C42">
         <v>116.29</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3119,8 +3248,11 @@
       <c r="C43">
         <v>96.87</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -3131,8 +3263,11 @@
       <c r="C44">
         <v>155.57</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -3143,8 +3278,11 @@
       <c r="C45">
         <v>156.83000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3155,8 +3293,11 @@
       <c r="C46">
         <v>109.48</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -3167,8 +3308,11 @@
       <c r="C47">
         <v>109.61</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3179,8 +3323,11 @@
       <c r="C48">
         <v>153.72</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3191,8 +3338,11 @@
       <c r="C49">
         <v>111.62</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3203,8 +3353,11 @@
       <c r="C50">
         <v>152.56</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3215,8 +3368,11 @@
       <c r="C51">
         <v>106.62</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3226,6 +3382,9 @@
       </c>
       <c r="C52">
         <v>122.04</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
